--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R202_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R202_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2080" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -448,10 +460,10 @@
       <c r="I11">
         <f>((C11-C10)^2+(D11- D10)^2)^.5</f>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="2" t="s">
+      <c r="J11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L11" t="n">
@@ -495,28 +507,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="2">
+      <c r="A13" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C13" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s" s="2">
+      <c r="C13" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -541,28 +553,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="s" s="2">
+      <c r="B15" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C15" t="s" s="2">
+      <c r="C15" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D15" t="s" s="2">
+      <c r="D15" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I15" t="s" s="2">
+      <c r="I15" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -766,10 +778,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="2" t="s">
+      <c r="J22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -813,28 +825,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="2">
+      <c r="A24" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="2">
+      <c r="C24" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -859,28 +871,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="2">
+      <c r="C26" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="2">
+      <c r="D26" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="2">
+      <c r="I26" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -997,10 +1009,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="2" t="s">
+      <c r="J30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1044,28 +1056,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="2">
+      <c r="A32" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s" s="2">
+      <c r="C32" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1090,28 +1102,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="2">
+      <c r="C34" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="2">
+      <c r="D34" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="2">
+      <c r="I34" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1228,10 +1240,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="2" t="s">
+      <c r="J38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1275,28 +1287,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="2">
+      <c r="A40" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s" s="2">
+      <c r="C40" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1321,28 +1333,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="2">
+      <c r="C42" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="2">
+      <c r="D42" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="2">
+      <c r="I42" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1517,10 +1529,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="2" t="s">
+      <c r="J48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1564,28 +1576,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="2">
+      <c r="A50" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s" s="2">
+      <c r="C50" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1610,28 +1622,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="2">
+      <c r="C52" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="2">
+      <c r="D52" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="2">
+      <c r="I52" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1719,10 +1731,10 @@
       <c r="I55">
         <f>((C55-C54)^2+(D55- D54)^2)^.5</f>
       </c>
-      <c r="J55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K55" s="2" t="s">
+      <c r="J55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K55" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L55" t="n">
@@ -1766,28 +1778,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="s" s="2">
+      <c r="A57" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C57" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D57" t="s" s="2">
+      <c r="C57" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1812,28 +1824,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C59" t="s" s="2">
+      <c r="C59" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D59" t="s" s="2">
+      <c r="D59" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I59" t="s" s="2">
+      <c r="I59" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2008,10 +2020,10 @@
       <c r="I65">
         <f>((C65-C64)^2+(D65- D64)^2)^.5</f>
       </c>
-      <c r="J65" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K65" s="2" t="s">
+      <c r="J65" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K65" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L65" t="n">
@@ -2055,28 +2067,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="2">
+      <c r="A67" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C67" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D67" t="s" s="2">
+      <c r="C67" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2101,28 +2113,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C69" t="s" s="2">
+      <c r="C69" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D69" t="s" s="2">
+      <c r="D69" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I69" t="s" s="2">
+      <c r="I69" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2239,10 +2251,10 @@
       <c r="I73">
         <f>((C73-C72)^2+(D73- D72)^2)^.5</f>
       </c>
-      <c r="J73" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K73" s="2" t="s">
+      <c r="J73" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K73" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L73" t="n">
@@ -2286,28 +2298,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="2">
+      <c r="A75" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C75" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D75" t="s" s="2">
+      <c r="C75" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2332,28 +2344,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C77" t="s" s="2">
+      <c r="C77" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D77" t="s" s="2">
+      <c r="D77" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I77" t="s" s="2">
+      <c r="I77" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2499,10 +2511,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K82" s="2" t="s">
+      <c r="J82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2546,28 +2558,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="2">
+      <c r="A84" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D84" t="s" s="2">
+      <c r="C84" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2592,28 +2604,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="2">
+      <c r="C86" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="2">
+      <c r="D86" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="2">
+      <c r="I86" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2788,10 +2800,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="2" t="s">
+      <c r="J92" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2835,28 +2847,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="2">
+      <c r="A94" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="2">
+      <c r="C94" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2881,28 +2893,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="2">
+      <c r="C96" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="2">
+      <c r="D96" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="2">
+      <c r="I96" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3019,10 +3031,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K100" s="2" t="s">
+      <c r="J100" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K100" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3066,28 +3078,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="2">
+      <c r="A102" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D102" t="s" s="2">
+      <c r="C102" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3112,28 +3124,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="2">
+      <c r="C104" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="2">
+      <c r="D104" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="2">
+      <c r="I104" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3308,10 +3320,10 @@
       <c r="I110">
         <f>((C110-C109)^2+(D110- D109)^2)^.5</f>
       </c>
-      <c r="J110" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K110" s="2" t="s">
+      <c r="J110" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K110" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L110" t="n">
@@ -3355,28 +3367,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s" s="2">
+      <c r="A112" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C112" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D112" t="s" s="2">
+      <c r="C112" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3401,28 +3413,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C114" t="s" s="2">
+      <c r="C114" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D114" t="s" s="2">
+      <c r="D114" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I114" t="s" s="2">
+      <c r="I114" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3626,10 +3638,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K121" s="2" t="s">
+      <c r="J121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K121" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3673,28 +3685,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="2">
+      <c r="A123" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D123" t="s" s="2">
+      <c r="C123" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3719,28 +3731,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="2">
+      <c r="C125" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="2">
+      <c r="D125" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="2">
+      <c r="I125" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3973,10 +3985,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K133" s="2" t="s">
+      <c r="J133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K133" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4020,28 +4032,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="2">
+      <c r="A135" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D135" t="s" s="2">
+      <c r="C135" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4066,28 +4078,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="2">
+      <c r="I137" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4204,10 +4216,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K141" s="2" t="s">
+      <c r="J141" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K141" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
@@ -4251,28 +4263,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s" s="2">
+      <c r="A143" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C143" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D143" t="s" s="2">
+      <c r="C143" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4297,28 +4309,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C145" t="s" s="2">
+      <c r="C145" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D145" t="s" s="2">
+      <c r="D145" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I145" t="s" s="2">
+      <c r="I145" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4406,10 +4418,10 @@
       <c r="I148">
         <f>((C148-C147)^2+(D148- D147)^2)^.5</f>
       </c>
-      <c r="J148" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K148" s="2" t="s">
+      <c r="J148" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K148" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L148" t="n">
@@ -4453,28 +4465,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="2">
+      <c r="A150" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C150" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D150" t="s" s="2">
+      <c r="C150" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D150" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4499,28 +4511,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C152" t="s" s="2">
+      <c r="C152" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D152" t="s" s="2">
+      <c r="D152" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I152" t="s" s="2">
+      <c r="I152" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4666,10 +4678,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="2" t="s">
+      <c r="J157" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4713,28 +4725,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="2">
+      <c r="A159" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="2">
+      <c r="C159" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4759,28 +4771,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="C161" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="2">
+      <c r="D161" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="2">
+      <c r="I161" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4897,10 +4909,10 @@
       <c r="I165">
         <f>((C165-C164)^2+(D165- D164)^2)^.5</f>
       </c>
-      <c r="J165" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K165" s="2" t="s">
+      <c r="J165" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K165" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L165" t="n">
@@ -4944,28 +4956,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="s" s="2">
+      <c r="A167" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C167" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D167" t="s" s="2">
+      <c r="C167" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D167" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4990,28 +5002,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="B169" t="s" s="2">
+      <c r="B169" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C169" t="s" s="2">
+      <c r="C169" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D169" t="s" s="2">
+      <c r="D169" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E169" t="s" s="2">
+      <c r="E169" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F169" t="s" s="2">
+      <c r="F169" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G169" t="s" s="2">
+      <c r="G169" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H169" t="s" s="2">
+      <c r="H169" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I169" t="s" s="2">
+      <c r="I169" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5099,10 +5111,10 @@
       <c r="I172">
         <f>((C172-C171)^2+(D172- D171)^2)^.5</f>
       </c>
-      <c r="J172" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K172" s="2" t="s">
+      <c r="J172" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K172" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L172" t="n">
@@ -5146,28 +5158,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s" s="2">
+      <c r="A174" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C174" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D174" t="s" s="2">
+      <c r="C174" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D174" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5192,28 +5204,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C176" t="s" s="2">
+      <c r="C176" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D176" t="s" s="2">
+      <c r="D176" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I176" t="s" s="2">
+      <c r="I176" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5301,10 +5313,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K179" s="2" t="s">
+      <c r="J179" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K179" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5348,28 +5360,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="2">
+      <c r="A181" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D181" t="s" s="2">
+      <c r="C181" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D181" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5394,28 +5406,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="2">
+      <c r="C183" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="2">
+      <c r="D183" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="2">
+      <c r="I183" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5561,10 +5573,10 @@
       <c r="I188">
         <f>((C188-C187)^2+(D188- D187)^2)^.5</f>
       </c>
-      <c r="J188" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K188" s="2" t="s">
+      <c r="J188" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K188" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L188" t="n">
@@ -5608,28 +5620,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s" s="2">
+      <c r="A190" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C190" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D190" t="s" s="2">
+      <c r="C190" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5654,28 +5666,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="B192" t="s" s="2">
+      <c r="B192" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C192" t="s" s="2">
+      <c r="C192" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D192" t="s" s="2">
+      <c r="D192" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E192" t="s" s="2">
+      <c r="E192" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F192" t="s" s="2">
+      <c r="F192" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G192" t="s" s="2">
+      <c r="G192" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H192" t="s" s="2">
+      <c r="H192" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I192" t="s" s="2">
+      <c r="I192" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5792,10 +5804,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K196" s="2" t="s">
+      <c r="J196" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K196" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">
@@ -5839,28 +5851,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="s" s="2">
+      <c r="A198" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B198" t="s" s="2">
+      <c r="B198" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C198" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D198" t="s" s="2">
+      <c r="C198" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D198" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E198" t="s" s="2">
+      <c r="E198" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F198" t="s" s="2">
+      <c r="F198" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G198" t="s" s="2">
+      <c r="G198" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H198" t="s" s="2">
+      <c r="H198" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5885,28 +5897,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C200" t="s" s="2">
+      <c r="C200" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D200" t="s" s="2">
+      <c r="D200" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I200" t="s" s="2">
+      <c r="I200" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6081,10 +6093,10 @@
       <c r="I206">
         <f>((C206-C205)^2+(D206- D205)^2)^.5</f>
       </c>
-      <c r="J206" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K206" s="2" t="s">
+      <c r="J206" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K206" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L206" t="n">
@@ -6128,28 +6140,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="s" s="2">
+      <c r="A208" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C208" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D208" t="s" s="2">
+      <c r="C208" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D208" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6174,28 +6186,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C210" t="s" s="2">
+      <c r="C210" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D210" t="s" s="2">
+      <c r="D210" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I210" t="s" s="2">
+      <c r="I210" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6341,10 +6353,10 @@
       <c r="I215">
         <f>((C215-C214)^2+(D215- D214)^2)^.5</f>
       </c>
-      <c r="J215" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K215" s="2" t="s">
+      <c r="J215" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K215" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L215" t="n">
@@ -6388,28 +6400,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="s" s="2">
+      <c r="A217" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B217" t="s" s="2">
+      <c r="B217" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C217" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D217" t="s" s="2">
+      <c r="C217" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D217" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E217" t="s" s="2">
+      <c r="E217" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F217" t="s" s="2">
+      <c r="F217" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G217" t="s" s="2">
+      <c r="G217" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H217" t="s" s="2">
+      <c r="H217" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6434,28 +6446,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="B219" t="s" s="2">
+      <c r="B219" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C219" t="s" s="2">
+      <c r="C219" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D219" t="s" s="2">
+      <c r="D219" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E219" t="s" s="2">
+      <c r="E219" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F219" t="s" s="2">
+      <c r="F219" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G219" t="s" s="2">
+      <c r="G219" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H219" t="s" s="2">
+      <c r="H219" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I219" t="s" s="2">
+      <c r="I219" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6543,10 +6555,10 @@
       <c r="I222">
         <f>((C222-C221)^2+(D222- D221)^2)^.5</f>
       </c>
-      <c r="J222" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K222" s="2" t="s">
+      <c r="J222" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K222" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L222" t="n">
@@ -6590,28 +6602,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="s" s="2">
+      <c r="A224" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C224" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D224" t="s" s="2">
+      <c r="C224" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D224" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6636,28 +6648,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="B226" t="s" s="2">
+      <c r="B226" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C226" t="s" s="2">
+      <c r="C226" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D226" t="s" s="2">
+      <c r="D226" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G226" t="s" s="2">
+      <c r="G226" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H226" t="s" s="2">
+      <c r="H226" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I226" t="s" s="2">
+      <c r="I226" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6745,10 +6757,10 @@
       <c r="I229">
         <f>((C229-C228)^2+(D229- D228)^2)^.5</f>
       </c>
-      <c r="J229" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K229" s="2" t="s">
+      <c r="J229" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K229" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L229" t="n">
@@ -6792,28 +6804,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="s" s="2">
+      <c r="A231" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B231" t="s" s="2">
+      <c r="B231" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C231" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D231" t="s" s="2">
+      <c r="C231" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D231" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E231" t="s" s="2">
+      <c r="E231" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F231" t="s" s="2">
+      <c r="F231" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G231" t="s" s="2">
+      <c r="G231" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H231" t="s" s="2">
+      <c r="H231" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6838,28 +6850,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="B233" t="s" s="2">
+      <c r="B233" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C233" t="s" s="2">
+      <c r="C233" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D233" t="s" s="2">
+      <c r="D233" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E233" t="s" s="2">
+      <c r="E233" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F233" t="s" s="2">
+      <c r="F233" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G233" t="s" s="2">
+      <c r="G233" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H233" t="s" s="2">
+      <c r="H233" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I233" t="s" s="2">
+      <c r="I233" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6918,10 +6930,10 @@
       <c r="I235">
         <f>((C235-C234)^2+(D235- D234)^2)^.5</f>
       </c>
-      <c r="J235" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K235" s="2" t="s">
+      <c r="J235" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K235" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L235" t="n">
@@ -6965,28 +6977,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="s" s="2">
+      <c r="A237" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B237" t="s" s="2">
+      <c r="B237" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C237" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D237" t="s" s="2">
+      <c r="C237" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D237" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E237" t="s" s="2">
+      <c r="E237" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F237" t="s" s="2">
+      <c r="F237" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G237" t="s" s="2">
+      <c r="G237" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H237" t="s" s="2">
+      <c r="H237" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7011,28 +7023,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="B239" t="s" s="2">
+      <c r="B239" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C239" t="s" s="2">
+      <c r="C239" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D239" t="s" s="2">
+      <c r="D239" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E239" t="s" s="2">
+      <c r="E239" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F239" t="s" s="2">
+      <c r="F239" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G239" t="s" s="2">
+      <c r="G239" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H239" t="s" s="2">
+      <c r="H239" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I239" t="s" s="2">
+      <c r="I239" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7091,10 +7103,10 @@
       <c r="I241">
         <f>((C241-C240)^2+(D241- D240)^2)^.5</f>
       </c>
-      <c r="J241" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K241" s="2" t="s">
+      <c r="J241" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K241" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L241" t="n">
